--- a/data/trans_orig/P43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>243732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>221430</v>
+        <v>219308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>267841</v>
+        <v>269323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3567152994161882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3240748992229219</v>
+        <v>0.3209686089956498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3920005453730169</v>
+        <v>0.3941686106318262</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>439536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415427</v>
+        <v>413945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461838</v>
+        <v>463960</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6432847005838117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.607999454626983</v>
+        <v>0.6058313893681738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6759251007770781</v>
+        <v>0.6790313910043501</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>341470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>312944</v>
+        <v>312872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371996</v>
+        <v>375638</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3537787391147993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3242236234536256</v>
+        <v>0.3241490620641158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3854043882203937</v>
+        <v>0.3891776817201009</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>623739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>593213</v>
+        <v>589571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>652265</v>
+        <v>652337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6462212608852007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6145956117796064</v>
+        <v>0.6108223182798992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6757763765463745</v>
+        <v>0.6758509379358844</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>264087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237397</v>
+        <v>239474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289118</v>
+        <v>287991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3892716003480057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3499297307113363</v>
+        <v>0.3529925529897809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4261694062433384</v>
+        <v>0.4245079501410131</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>414325</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>389294</v>
+        <v>390421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>441015</v>
+        <v>438938</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6107283996519942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5738305937566613</v>
+        <v>0.5754920498589875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6500702692886636</v>
+        <v>0.6470074470102194</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>424152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>395091</v>
+        <v>393065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>458245</v>
+        <v>457584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4107595375739018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3826159041643901</v>
+        <v>0.3806538632238226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4437758370376926</v>
+        <v>0.4431356879857746</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>608453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574360</v>
+        <v>575021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>637514</v>
+        <v>639540</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5892404624260982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5562241629623074</v>
+        <v>0.5568643120142255</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.61738409583561</v>
+        <v>0.6193461367761774</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>1273441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3790575110326052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>2086053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2024365</v>
+        <v>2035331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2142445</v>
+        <v>2148879</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6209424889673948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6025802624719857</v>
+        <v>0.6058445742786757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6377284113967759</v>
+        <v>0.6396437040690687</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>328239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>302041</v>
+        <v>304094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353903</v>
+        <v>358713</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4735902721877512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4357912799228885</v>
+        <v>0.4387529360302877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5106180784925377</v>
+        <v>0.5175582035218198</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>364848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339184</v>
+        <v>334374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>391046</v>
+        <v>388993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5264097278122488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4893819215074625</v>
+        <v>0.4824417964781802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5642087200771116</v>
+        <v>0.5612470639697122</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>463929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428089</v>
+        <v>430263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>497128</v>
+        <v>496807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.452658828146851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4176896603226322</v>
+        <v>0.4198105116933465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4850518999275402</v>
+        <v>0.4847388374211584</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>560968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>527769</v>
+        <v>528090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>596808</v>
+        <v>594634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.547341171853149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5149481000724598</v>
+        <v>0.5152611625788416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5823103396773678</v>
+        <v>0.5801894883066534</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>370652</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>344362</v>
+        <v>342670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>401133</v>
+        <v>399089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4789422031999329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4449705805981676</v>
+        <v>0.4427845616562961</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5183282162021456</v>
+        <v>0.5156873915204853</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>403246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>372765</v>
+        <v>374809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>429536</v>
+        <v>431228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5210577968000671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4816717837978542</v>
+        <v>0.4843126084795148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5550294194018323</v>
+        <v>0.5572154383437039</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>504428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>471719</v>
+        <v>472393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>538875</v>
+        <v>538671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4828563589920753</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4515459786942804</v>
+        <v>0.4521906098830298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.515829663243073</v>
+        <v>0.5156345189305032</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>540248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505801</v>
+        <v>506005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>572957</v>
+        <v>572283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5171436410079246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4841703367569269</v>
+        <v>0.4843654810694967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5484540213057196</v>
+        <v>0.5478093901169697</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>1667249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4714326154561919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>1869309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1809023</v>
+        <v>1805810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1931815</v>
+        <v>1929920</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5285673845438081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5115208686499044</v>
+        <v>0.5106122683130766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5462415560421008</v>
+        <v>0.545705601711661</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>334215</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307111</v>
+        <v>308032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>359137</v>
+        <v>359162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5000768011254526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.459520916413855</v>
+        <v>0.4608998969503678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5373668884136359</v>
+        <v>0.5374034466638919</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>334113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309191</v>
+        <v>309166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361217</v>
+        <v>360296</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4999231988745474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.462633111586364</v>
+        <v>0.4625965533361081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.540479083586145</v>
+        <v>0.539100103049632</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>543552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>512269</v>
+        <v>510530</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>577722</v>
+        <v>579623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5255424656843117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4952958240919938</v>
+        <v>0.493614273790684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5585804809382716</v>
+        <v>0.5604180091143341</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>490717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456547</v>
+        <v>454646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522000</v>
+        <v>523739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4744575343156883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4414195190617284</v>
+        <v>0.4395819908856657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5047041759080062</v>
+        <v>0.506385726209316</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>342091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>310698</v>
+        <v>314186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>369195</v>
+        <v>373224</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4376199310214083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3974606965850155</v>
+        <v>0.4019222541379584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4722928279350317</v>
+        <v>0.47744648671528</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>439617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412513</v>
+        <v>408484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471010</v>
+        <v>467522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5623800689785917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5277071720649684</v>
+        <v>0.5225535132847201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6025393034149846</v>
+        <v>0.5980777458620419</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>537442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>503977</v>
+        <v>505688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>571597</v>
+        <v>572814</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5190742261318018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.486752870577932</v>
+        <v>0.4884059589467128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5520623233503481</v>
+        <v>0.5532373458904079</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>497943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463788</v>
+        <v>462571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>531408</v>
+        <v>529697</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4809257738681982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.447937676649652</v>
+        <v>0.4467626541095924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5132471294220682</v>
+        <v>0.5115940410532872</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>1757300</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4992770063475405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>1762390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1700381</v>
+        <v>1702656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1826394</v>
+        <v>1822421</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5007229936524594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4831054233183192</v>
+        <v>0.4837517888463151</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5189075711999318</v>
+        <v>0.5177787944621043</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>289241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268577</v>
+        <v>268821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308520</v>
+        <v>309421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5230784974740482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4857085241796293</v>
+        <v>0.4861494081831306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5579441895854942</v>
+        <v>0.5595739987861963</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>263718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244439</v>
+        <v>243538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284382</v>
+        <v>284138</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4769215025259517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4420558104145059</v>
+        <v>0.4404260012138037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5142914758203706</v>
+        <v>0.5138505918168694</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>401238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>377534</v>
+        <v>375757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>426629</v>
+        <v>427630</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4895004081376771</v>
+        <v>0.489500408137677</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4605824900042174</v>
+        <v>0.4584147356082526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.520477086392155</v>
+        <v>0.5216986256605386</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>418450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393059</v>
+        <v>392058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>442154</v>
+        <v>443931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5104995918623231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4795229136078452</v>
+        <v>0.4783013743394611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5394175099957829</v>
+        <v>0.5415852643917473</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>297580</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>275791</v>
+        <v>273778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320197</v>
+        <v>317743</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5209776369444036</v>
+        <v>0.5209776369444037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4828311604474003</v>
+        <v>0.4793071989380642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.560573345344064</v>
+        <v>0.5562763894187425</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>273616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250999</v>
+        <v>253453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295405</v>
+        <v>297418</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4790223630555962</v>
+        <v>0.4790223630555964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4394266546559361</v>
+        <v>0.4437236105812574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5171688395525996</v>
+        <v>0.5206928010619357</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>478434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>451851</v>
+        <v>451383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>505539</v>
+        <v>502929</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.55693729235905</v>
+        <v>0.5569372923590501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5259934092052347</v>
+        <v>0.5254480223936594</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5884906061756603</v>
+        <v>0.5854524202460561</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>380610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353505</v>
+        <v>356115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>407193</v>
+        <v>407661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.44306270764095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4115093938243397</v>
+        <v>0.4145475797539435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4740065907947653</v>
+        <v>0.4745519776063405</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>1466492</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5232078792822897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>1336394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1288151</v>
+        <v>1289358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1383189</v>
+        <v>1381476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4767921207177104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4595802666924089</v>
+        <v>0.4600109735278901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4934874539543671</v>
+        <v>0.4928762025469728</v>
       </c>
     </row>
     <row r="18">
